--- a/Knowledge_Discovery_Game_metrics_example.xlsx
+++ b/Knowledge_Discovery_Game_metrics_example.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarbakardzhiev/git/knowledge_discovery_game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520CD75D-2D2B-6C49-B964-DCB87C548A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D01AFD-D3C0-E942-ADCC-20BC3EAC44C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30000" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4 rounds" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
   <si>
     <t>Days</t>
   </si>
@@ -111,13 +112,28 @@
   <si>
     <t>Fun</t>
   </si>
+  <si>
+    <t>Avg KEDE</t>
+  </si>
+  <si>
+    <t>Sum Cards</t>
+  </si>
+  <si>
+    <t>not to be played</t>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -166,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +228,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +648,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -633,16 +661,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -693,12 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,6 +729,23 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -840,6 +879,975 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Happiness vs. Productivity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BG"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg KEDE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.666666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B190-264C-9338-E77CA2DAA430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum Cards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B190-264C-9338-E77CA2DAA430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="53431935"/>
+        <c:axId val="53433583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53431935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BG"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53433583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53433583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BG"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53431935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BG"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BG"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>813246</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149728</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD040A0A-0B7D-DB8D-AF79-348DF1C1273A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1164,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF0DBF1-FC26-8844-8E36-1C4B763C22B4}">
-  <dimension ref="A2:AA41"/>
+  <dimension ref="A2:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="J30" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,38 +2185,39 @@
     <col min="4" max="4" width="22.1640625" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="41"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
     <col min="22" max="22" width="17.6640625" customWidth="1"/>
     <col min="27" max="27" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="F2" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
+      <c r="F2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
       <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
@@ -1346,7 +2355,7 @@
         <f>N5+1</f>
         <v>10</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="51" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="9">
@@ -1438,7 +2447,7 @@
         <f>N6+1</f>
         <v>5</v>
       </c>
-      <c r="P6" s="54" t="s">
+      <c r="P6" s="52" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="9">
@@ -1530,7 +2539,7 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="50" t="s">
         <v>21</v>
       </c>
       <c r="Q7" s="9">
@@ -1649,33 +2658,33 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="F11" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
+      <c r="F11" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
       <c r="P11" s="37"/>
     </row>
     <row r="12" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
       <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
@@ -1813,7 +2822,7 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="P14" s="52" t="s">
+      <c r="P14" s="50" t="s">
         <v>21</v>
       </c>
       <c r="Q14" s="9">
@@ -1905,7 +2914,7 @@
         <f>N15+1</f>
         <v>5</v>
       </c>
-      <c r="P15" s="54" t="s">
+      <c r="P15" s="52" t="s">
         <v>23</v>
       </c>
       <c r="Q15" s="9">
@@ -1997,7 +3006,7 @@
         <f>N16+1</f>
         <v>10</v>
       </c>
-      <c r="P16" s="54" t="s">
+      <c r="P16" s="52" t="s">
         <v>23</v>
       </c>
       <c r="Q16" s="9">
@@ -2091,942 +3100,1048 @@
         <v>2</v>
       </c>
     </row>
+    <row r="20" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="37"/>
+    </row>
+    <row r="21" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="38"/>
+    </row>
     <row r="22" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="F22" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="37"/>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <f>H22+1</f>
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="18">I22+1</f>
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22" si="19">J22+1</f>
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22" si="20">K22+1</f>
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <f>L22+1</f>
+        <v>8</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N23" si="21">M22+1</f>
+        <v>9</v>
+      </c>
+      <c r="O22">
+        <f>N22+1</f>
+        <v>10</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="51" t="s">
+      <c r="A23" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="33">
+        <v>5</v>
+      </c>
+      <c r="F23" s="40">
+        <f>B23</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="40">
+        <f>F23+1</f>
+        <v>2</v>
+      </c>
+      <c r="H23" s="40">
+        <f t="shared" ref="H23:I23" si="22">G23+1</f>
+        <v>3</v>
+      </c>
+      <c r="I23" s="40">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="33">
+        <f>I23+1</f>
+        <v>5</v>
+      </c>
+      <c r="K23" s="40">
+        <v>1</v>
+      </c>
+      <c r="L23" s="40">
+        <f>K23+1</f>
+        <v>2</v>
+      </c>
+      <c r="M23" s="40">
+        <f t="shared" ref="M23" si="23">L23+1</f>
+        <v>3</v>
+      </c>
+      <c r="N23" s="40">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="O23" s="33">
+        <f>N23+1</f>
+        <v>5</v>
+      </c>
+      <c r="P23" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="9">
+        <f>O$13-R23</f>
+        <v>8</v>
+      </c>
+      <c r="R23" s="6">
+        <f>COUNTIF(F23:O23,"&gt;="&amp;C23)</f>
+        <v>2</v>
+      </c>
+      <c r="S23" s="4">
+        <f>Q23/R23</f>
+        <v>4</v>
+      </c>
+      <c r="T23" s="12">
+        <f>100/(1+S23)</f>
+        <v>20</v>
+      </c>
+      <c r="U23" s="16">
+        <f>100*R23/(Q23+R23)</f>
+        <v>20</v>
+      </c>
+      <c r="V23" s="4">
+        <f>(100/U23)-1</f>
+        <v>4</v>
+      </c>
+      <c r="W23" s="9">
+        <f>R23/R$26</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="X23" s="10">
+        <f>S23*W23</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="13">
+        <f>100*R23/(Q$17+R$17)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="34">
         <v>0</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="38"/>
-    </row>
-    <row r="24" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <f>H24+1</f>
+      <c r="F24" s="34">
         <v>4</v>
       </c>
-      <c r="J24">
-        <f t="shared" ref="J24" si="18">I24+1</f>
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ref="K24" si="19">J24+1</f>
-        <v>6</v>
-      </c>
-      <c r="L24">
-        <f t="shared" ref="L24" si="20">K24+1</f>
-        <v>7</v>
-      </c>
-      <c r="M24">
-        <f>L24+1</f>
-        <v>8</v>
-      </c>
-      <c r="N24">
-        <f t="shared" ref="N24" si="21">M24+1</f>
-        <v>9</v>
-      </c>
-      <c r="O24">
-        <f>N24+1</f>
+      <c r="G24" s="34">
+        <v>4</v>
+      </c>
+      <c r="H24" s="34">
+        <v>4</v>
+      </c>
+      <c r="I24" s="34">
+        <v>4</v>
+      </c>
+      <c r="J24" s="34">
+        <v>4</v>
+      </c>
+      <c r="K24" s="34">
+        <v>4</v>
+      </c>
+      <c r="L24" s="34">
+        <v>4</v>
+      </c>
+      <c r="M24" s="34">
+        <v>4</v>
+      </c>
+      <c r="N24" s="34">
+        <v>4</v>
+      </c>
+      <c r="O24" s="34">
+        <v>4</v>
+      </c>
+      <c r="P24" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" ref="Q24:Q25" si="24">O$13-R24</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" ref="R24:R25" si="25">COUNTIF(F24:O24,"&gt;="&amp;C24)</f>
         <v>10</v>
       </c>
-      <c r="P24" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="V24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="W24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="X24" s="14" t="s">
-        <v>11</v>
+      <c r="S24" s="4">
+        <f t="shared" ref="S24:S25" si="26">Q24/R24</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="12">
+        <f>100/(1+S24)</f>
+        <v>100</v>
+      </c>
+      <c r="U24" s="16">
+        <f t="shared" ref="U24:U25" si="27">100*R24/(Q24+R24)</f>
+        <v>100</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" ref="V24:V25" si="28">(100/U24)-1</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="9">
+        <f t="shared" ref="W24:W25" si="29">R24/R$26</f>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="X24" s="10">
+        <f>S24*W24</f>
+        <v>0</v>
       </c>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA24" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="Z24" s="13">
+        <f>100*R24/(Q$17+R$17)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="AA24" s="5"/>
     </row>
     <row r="25" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9</v>
+      </c>
+      <c r="C25" s="32">
+        <v>10</v>
+      </c>
+      <c r="F25" s="48">
+        <f>B25</f>
+        <v>9</v>
+      </c>
+      <c r="G25" s="32">
+        <f>F25+1</f>
+        <v>10</v>
+      </c>
+      <c r="H25" s="48">
+        <f>B25</f>
+        <v>9</v>
+      </c>
+      <c r="I25" s="32">
+        <f>H25+1</f>
+        <v>10</v>
+      </c>
+      <c r="J25" s="48">
+        <f>B25</f>
+        <v>9</v>
+      </c>
+      <c r="K25" s="32">
+        <f>J25+1</f>
+        <v>10</v>
+      </c>
+      <c r="L25" s="48">
+        <f>B25</f>
+        <v>9</v>
+      </c>
+      <c r="M25" s="32">
+        <f>L25+1</f>
+        <v>10</v>
+      </c>
+      <c r="N25" s="48">
+        <f>B25</f>
+        <v>9</v>
+      </c>
+      <c r="O25" s="32">
+        <f>N25+1</f>
+        <v>10</v>
+      </c>
+      <c r="P25" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="34">
-        <v>0</v>
-      </c>
-      <c r="F25" s="40">
-        <f>$B25</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="40">
-        <f t="shared" ref="G25:O25" si="22">$B25</f>
-        <v>1</v>
-      </c>
-      <c r="H25" s="40">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="40">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="40">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="40">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="40">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="40">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="40">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="40">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="P25" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="9">
-        <f>O$13-R25</f>
-        <v>0</v>
-      </c>
       <c r="R25" s="6">
-        <f>COUNTIF(F25:O25,"&gt;="&amp;C25)</f>
-        <v>10</v>
-      </c>
-      <c r="S25" s="4">
-        <f>Q25/R25</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="12">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="S25" s="19">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="T25" s="20">
         <f>100/(1+S25)</f>
-        <v>100</v>
-      </c>
-      <c r="U25" s="16">
-        <f>100*R25/(Q25+R25)</f>
-        <v>100</v>
-      </c>
-      <c r="V25" s="4">
-        <f>(100/U25)-1</f>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="U25" s="21">
+        <f t="shared" si="27"/>
+        <v>50</v>
+      </c>
+      <c r="V25" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="W25" s="9">
-        <f>R25/R$28</f>
-        <v>0.47619047619047616</v>
-      </c>
-      <c r="X25" s="10">
+        <f t="shared" si="29"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="X25" s="22">
         <f>S25*W25</f>
-        <v>0</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="13">
+      <c r="Z25" s="23">
         <f>100*R25/(Q$17+R$17)</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="AA25" s="5"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AA25" s="19"/>
     </row>
     <row r="26" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="32">
-        <v>10</v>
-      </c>
-      <c r="F26" s="49">
-        <f>B26</f>
-        <v>4</v>
-      </c>
-      <c r="G26" s="49">
-        <f>F26+1</f>
-        <v>5</v>
-      </c>
-      <c r="H26" s="49">
-        <f t="shared" ref="H26:K26" si="23">G26+1</f>
-        <v>6</v>
-      </c>
-      <c r="I26" s="49">
-        <f t="shared" si="23"/>
-        <v>7</v>
-      </c>
-      <c r="J26" s="49">
-        <f t="shared" si="23"/>
-        <v>8</v>
-      </c>
-      <c r="K26" s="49">
-        <f t="shared" si="23"/>
-        <v>9</v>
-      </c>
-      <c r="L26" s="40">
-        <f>K26+1</f>
-        <v>10</v>
-      </c>
-      <c r="M26" s="49">
-        <f>B26</f>
-        <v>4</v>
-      </c>
-      <c r="N26" s="49">
-        <f>M26+1</f>
-        <v>5</v>
-      </c>
-      <c r="O26" s="49">
-        <f>N26+1</f>
-        <v>6</v>
-      </c>
-      <c r="P26" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q26" s="9">
-        <f t="shared" ref="Q26:Q27" si="24">O$13-R26</f>
-        <v>9</v>
-      </c>
-      <c r="R26" s="6">
-        <f t="shared" ref="R26:R27" si="25">COUNTIF(F26:O26,"&gt;="&amp;C26)</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" ref="S26:S27" si="26">Q26/R26</f>
-        <v>9</v>
-      </c>
-      <c r="T26" s="12">
-        <f>100/(1+S26)</f>
-        <v>10</v>
-      </c>
-      <c r="U26" s="16">
-        <f t="shared" ref="U26:U27" si="27">100*R26/(Q26+R26)</f>
-        <v>10</v>
-      </c>
-      <c r="V26" s="4">
-        <f t="shared" ref="V26:V27" si="28">(100/U26)-1</f>
-        <v>9</v>
-      </c>
-      <c r="W26" s="9">
-        <f t="shared" ref="W26:W27" si="29">R26/R$28</f>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="X26" s="10">
-        <f>S26*W26</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="13">
-        <f>100*R26/(Q$17+R$17)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AA26" s="5"/>
+      <c r="P26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="25">
+        <f>SUM(Q23:Q25)</f>
+        <v>13</v>
+      </c>
+      <c r="R26" s="26">
+        <f>SUM(R23:R25)</f>
+        <v>17</v>
+      </c>
+      <c r="S26" s="27">
+        <f>Q26/R26</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="T26" s="25">
+        <f>AVERAGE(T23:T25)</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="U26" s="25">
+        <f>AVERAGE(U23:U25)</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="V26" s="27">
+        <f>(100/T26)-1</f>
+        <v>0.76470588235294135</v>
+      </c>
+      <c r="W26" s="25"/>
+      <c r="X26" s="42">
+        <f>SUM(X23:X25)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="30">
+        <f>SUM(Z23:Z25)</f>
+        <v>56.666666666666671</v>
+      </c>
+      <c r="AA26" s="43">
+        <f>(100/Z26)-1</f>
+        <v>0.76470588235294112</v>
+      </c>
     </row>
     <row r="27" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="R27" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" s="44">
+        <f>SUM(S23:S25)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="37"/>
+    </row>
+    <row r="31" spans="1:27" s="41" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="38"/>
+    </row>
+    <row r="32" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <f>H32+1</f>
         <v>4</v>
       </c>
-      <c r="B27" s="1">
-        <v>9</v>
-      </c>
-      <c r="C27" s="33">
+      <c r="J32">
+        <f t="shared" ref="J32" si="30">I32+1</f>
         <v>5</v>
       </c>
-      <c r="F27" s="40">
-        <f>$B27</f>
-        <v>9</v>
-      </c>
-      <c r="G27" s="40">
-        <f t="shared" ref="G27:O27" si="30">$B27</f>
-        <v>9</v>
-      </c>
-      <c r="H27" s="40">
-        <f t="shared" si="30"/>
-        <v>9</v>
-      </c>
-      <c r="I27" s="40">
-        <f t="shared" si="30"/>
-        <v>9</v>
-      </c>
-      <c r="J27" s="40">
-        <f t="shared" si="30"/>
-        <v>9</v>
-      </c>
-      <c r="K27" s="40">
-        <f t="shared" si="30"/>
-        <v>9</v>
-      </c>
-      <c r="L27" s="40">
-        <f t="shared" si="30"/>
-        <v>9</v>
-      </c>
-      <c r="M27" s="40">
-        <f t="shared" si="30"/>
-        <v>9</v>
-      </c>
-      <c r="N27" s="40">
-        <f t="shared" si="30"/>
-        <v>9</v>
-      </c>
-      <c r="O27" s="40">
-        <f t="shared" si="30"/>
-        <v>9</v>
-      </c>
-      <c r="P27" s="52" t="s">
+      <c r="K32">
+        <f t="shared" ref="K32" si="31">J32+1</f>
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32" si="32">K32+1</f>
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <f>L32+1</f>
+        <v>8</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32" si="33">M32+1</f>
+        <v>9</v>
+      </c>
+      <c r="O32">
+        <f>N32+1</f>
+        <v>10</v>
+      </c>
+      <c r="P32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="34">
+        <v>0</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" ref="F33:O33" si="34">$B33</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="40">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="40">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="40">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="J33" s="40">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="40">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="40">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="M33" s="40">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="N33" s="40">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="40">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="P33" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="9">
-        <f t="shared" si="24"/>
+      <c r="Q33" s="9">
+        <f>O$13-R33</f>
         <v>0</v>
       </c>
-      <c r="R27" s="6">
-        <f t="shared" si="25"/>
+      <c r="R33" s="6">
+        <f>COUNTIF(F33:O33,"&gt;="&amp;C33)</f>
         <v>10</v>
       </c>
-      <c r="S27" s="19">
-        <f t="shared" si="26"/>
+      <c r="S33" s="4">
+        <f>Q33/R33</f>
         <v>0</v>
       </c>
-      <c r="T27" s="20">
-        <f>100/(1+S27)</f>
+      <c r="T33" s="12">
+        <f>100/(1+S33)</f>
         <v>100</v>
       </c>
-      <c r="U27" s="21">
-        <f t="shared" si="27"/>
+      <c r="U33" s="16">
+        <f>100*R33/(Q33+R33)</f>
         <v>100</v>
       </c>
-      <c r="V27" s="19">
-        <f t="shared" si="28"/>
+      <c r="V33" s="4">
+        <f>(100/U33)-1</f>
         <v>0</v>
       </c>
-      <c r="W27" s="9">
-        <f t="shared" si="29"/>
+      <c r="W33" s="9">
+        <f>R33/R$36</f>
         <v>0.47619047619047616</v>
       </c>
-      <c r="X27" s="22">
-        <f>S27*W27</f>
+      <c r="X33" s="10">
+        <f>S33*W33</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="23">
-        <f>100*R27/(Q$17+R$17)</f>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="13">
+        <f>100*R33/(Q$17+R$17)</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="AA27" s="19"/>
+      <c r="AA33" s="5"/>
     </row>
-    <row r="28" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P28" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q28" s="25">
-        <f>SUM(Q25:Q27)</f>
-        <v>9</v>
-      </c>
-      <c r="R28" s="26">
-        <f>SUM(R25:R27)</f>
-        <v>21</v>
-      </c>
-      <c r="S28" s="27">
-        <f>Q28/R28</f>
+    <row r="34" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="32">
+        <v>10</v>
+      </c>
+      <c r="F34" s="49">
+        <f>B34</f>
+        <v>4</v>
+      </c>
+      <c r="G34" s="49">
+        <f>F34+1</f>
+        <v>5</v>
+      </c>
+      <c r="H34" s="49">
+        <f t="shared" ref="H34:K34" si="35">G34+1</f>
+        <v>6</v>
+      </c>
+      <c r="I34" s="49">
+        <f t="shared" si="35"/>
+        <v>7</v>
+      </c>
+      <c r="J34" s="49">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="K34" s="49">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="L34" s="40">
+        <f>K34+1</f>
+        <v>10</v>
+      </c>
+      <c r="M34" s="49">
+        <f>B34</f>
+        <v>4</v>
+      </c>
+      <c r="N34" s="49">
+        <f>M34+1</f>
+        <v>5</v>
+      </c>
+      <c r="O34" s="49">
+        <f>N34+1</f>
+        <v>6</v>
+      </c>
+      <c r="P34" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="9">
+        <f>O$13-R34</f>
+        <v>9</v>
+      </c>
+      <c r="R34" s="6">
+        <f t="shared" ref="R34:R35" si="36">COUNTIF(F34:O34,"&gt;="&amp;C34)</f>
+        <v>1</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" ref="S34:S35" si="37">Q34/R34</f>
+        <v>9</v>
+      </c>
+      <c r="T34" s="12">
+        <f>100/(1+S34)</f>
+        <v>10</v>
+      </c>
+      <c r="U34" s="16">
+        <f t="shared" ref="U34:U35" si="38">100*R34/(Q34+R34)</f>
+        <v>10</v>
+      </c>
+      <c r="V34" s="4">
+        <f t="shared" ref="V34:V35" si="39">(100/U34)-1</f>
+        <v>9</v>
+      </c>
+      <c r="W34" s="9">
+        <f>R34/R$36</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="X34" s="10">
+        <f>S34*W34</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="T28" s="25">
-        <f>AVERAGE(T25:T27)</f>
-        <v>70</v>
-      </c>
-      <c r="U28" s="25">
-        <f>AVERAGE(U25:U27)</f>
-        <v>70</v>
-      </c>
-      <c r="V28" s="27">
-        <f>(100/T28)-1</f>
-        <v>0.4285714285714286</v>
-      </c>
-      <c r="W28" s="25"/>
-      <c r="X28" s="42">
-        <f>SUM(X25:X27)</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="30">
-        <f>SUM(Z25:Z27)</f>
-        <v>70</v>
-      </c>
-      <c r="AA28" s="43">
-        <f>(100/Z28)-1</f>
-        <v>0.4285714285714286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R29" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="S29" s="44">
-        <f>SUM(S25:S27)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="F34" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="37"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="13">
+        <f>100*R34/(Q$17+R$17)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AA34" s="5"/>
     </row>
     <row r="35" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="51" t="s">
+      <c r="A35" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>9</v>
+      </c>
+      <c r="C35" s="33">
+        <v>5</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" ref="F35:O35" si="40">$B35</f>
+        <v>9</v>
+      </c>
+      <c r="G35" s="40">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="H35" s="40">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="I35" s="40">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="J35" s="40">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="K35" s="40">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="L35" s="40">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="M35" s="40">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="N35" s="40">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="O35" s="40">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="P35" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="9">
+        <f>O$13-R35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="38"/>
+      <c r="R35" s="6">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="S35" s="19">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="20">
+        <f>100/(1+S35)</f>
+        <v>100</v>
+      </c>
+      <c r="U35" s="21">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="V35" s="19">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="9">
+        <f>R35/R$36</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="X35" s="22">
+        <f>S35*W35</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="23">
+        <f>100*R35/(Q$17+R$17)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="AA35" s="19"/>
     </row>
-    <row r="36" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <f>H36+1</f>
-        <v>4</v>
-      </c>
-      <c r="J36">
-        <f t="shared" ref="J36" si="31">I36+1</f>
-        <v>5</v>
-      </c>
-      <c r="K36">
-        <f t="shared" ref="K36" si="32">J36+1</f>
-        <v>6</v>
-      </c>
-      <c r="L36">
-        <f t="shared" ref="L36" si="33">K36+1</f>
-        <v>7</v>
-      </c>
-      <c r="M36">
-        <f>L36+1</f>
-        <v>8</v>
-      </c>
-      <c r="N36">
-        <f t="shared" ref="N36:N37" si="34">M36+1</f>
-        <v>9</v>
-      </c>
-      <c r="O36">
-        <f>N36+1</f>
-        <v>10</v>
-      </c>
-      <c r="P36" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R36" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="V36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="W36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="X36" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA36" s="8" t="s">
-        <v>11</v>
+    <row r="36" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="25">
+        <f>SUM(Q33:Q35)</f>
+        <v>9</v>
+      </c>
+      <c r="R36" s="26">
+        <f>SUM(R33:R35)</f>
+        <v>21</v>
+      </c>
+      <c r="S36" s="27">
+        <f>Q36/R36</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="T36" s="25">
+        <f>AVERAGE(T33:T35)</f>
+        <v>70</v>
+      </c>
+      <c r="U36" s="25">
+        <f>AVERAGE(U33:U35)</f>
+        <v>70</v>
+      </c>
+      <c r="V36" s="27">
+        <f>(100/T36)-1</f>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="W36" s="25"/>
+      <c r="X36" s="42">
+        <f>SUM(X33:X35)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="30">
+        <f>SUM(Z33:Z35)</f>
+        <v>70</v>
+      </c>
+      <c r="AA36" s="43">
+        <f>(100/Z36)-1</f>
+        <v>0.4285714285714286</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="33">
-        <v>5</v>
-      </c>
-      <c r="F37" s="40">
-        <f>B37</f>
-        <v>1</v>
-      </c>
-      <c r="G37" s="40">
-        <f>F37+1</f>
-        <v>2</v>
-      </c>
-      <c r="H37" s="40">
-        <f t="shared" ref="H37:I37" si="35">G37+1</f>
-        <v>3</v>
-      </c>
-      <c r="I37" s="40">
-        <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="J37" s="33">
-        <f>I37+1</f>
-        <v>5</v>
-      </c>
-      <c r="K37" s="40">
-        <v>1</v>
-      </c>
-      <c r="L37" s="40">
-        <f>K37+1</f>
-        <v>2</v>
-      </c>
-      <c r="M37" s="40">
-        <f t="shared" ref="M37" si="36">L37+1</f>
-        <v>3</v>
-      </c>
-      <c r="N37" s="40">
-        <f t="shared" si="34"/>
-        <v>4</v>
-      </c>
-      <c r="O37" s="33">
-        <f>N37+1</f>
-        <v>5</v>
-      </c>
-      <c r="P37" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37" s="9">
-        <f>O$13-R37</f>
-        <v>8</v>
-      </c>
-      <c r="R37" s="6">
-        <f>COUNTIF(F37:O37,"&gt;="&amp;C37)</f>
-        <v>2</v>
-      </c>
-      <c r="S37" s="4">
-        <f>Q37/R37</f>
-        <v>4</v>
-      </c>
-      <c r="T37" s="12">
-        <f>100/(1+S37)</f>
-        <v>20</v>
-      </c>
-      <c r="U37" s="16">
-        <f>100*R37/(Q37+R37)</f>
-        <v>20</v>
-      </c>
-      <c r="V37" s="4">
-        <f>(100/U37)-1</f>
-        <v>4</v>
-      </c>
-      <c r="W37" s="9">
-        <f>R37/R$40</f>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="X37" s="10">
-        <f>S37*W37</f>
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="13">
-        <f>100*R37/(Q$17+R$17)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="AA37" s="5"/>
-    </row>
-    <row r="38" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="1">
-        <v>4</v>
-      </c>
-      <c r="C38" s="34">
-        <v>0</v>
-      </c>
-      <c r="F38" s="34">
-        <v>4</v>
-      </c>
-      <c r="G38" s="34">
-        <v>4</v>
-      </c>
-      <c r="H38" s="34">
-        <v>4</v>
-      </c>
-      <c r="I38" s="34">
-        <v>4</v>
-      </c>
-      <c r="J38" s="34">
-        <v>4</v>
-      </c>
-      <c r="K38" s="34">
-        <v>4</v>
-      </c>
-      <c r="L38" s="34">
-        <v>4</v>
-      </c>
-      <c r="M38" s="34">
-        <v>4</v>
-      </c>
-      <c r="N38" s="34">
-        <v>4</v>
-      </c>
-      <c r="O38" s="34">
-        <v>4</v>
-      </c>
-      <c r="P38" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="9">
-        <f t="shared" ref="Q38:Q39" si="37">O$13-R38</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="6">
-        <f t="shared" ref="R38:R39" si="38">COUNTIF(F38:O38,"&gt;="&amp;C38)</f>
-        <v>10</v>
-      </c>
-      <c r="S38" s="4">
-        <f t="shared" ref="S38:S39" si="39">Q38/R38</f>
-        <v>0</v>
-      </c>
-      <c r="T38" s="12">
-        <f>100/(1+S38)</f>
-        <v>100</v>
-      </c>
-      <c r="U38" s="16">
-        <f t="shared" ref="U38:U39" si="40">100*R38/(Q38+R38)</f>
-        <v>100</v>
-      </c>
-      <c r="V38" s="4">
-        <f t="shared" ref="V38:V39" si="41">(100/U38)-1</f>
-        <v>0</v>
-      </c>
-      <c r="W38" s="9">
-        <f t="shared" ref="W38:W39" si="42">R38/R$40</f>
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="X38" s="10">
-        <f>S38*W38</f>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="13">
-        <f>100*R38/(Q$17+R$17)</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="AA38" s="5"/>
-    </row>
-    <row r="39" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1">
-        <v>9</v>
-      </c>
-      <c r="C39" s="32">
-        <v>10</v>
-      </c>
-      <c r="F39" s="48">
-        <f>B39</f>
-        <v>9</v>
-      </c>
-      <c r="G39" s="32">
-        <f>F39+1</f>
-        <v>10</v>
-      </c>
-      <c r="H39" s="48">
-        <f>B39</f>
-        <v>9</v>
-      </c>
-      <c r="I39" s="32">
-        <f>H39+1</f>
-        <v>10</v>
-      </c>
-      <c r="J39" s="48">
-        <f>B39</f>
-        <v>9</v>
-      </c>
-      <c r="K39" s="32">
-        <f>J39+1</f>
-        <v>10</v>
-      </c>
-      <c r="L39" s="48">
-        <f>B39</f>
-        <v>9</v>
-      </c>
-      <c r="M39" s="32">
-        <f>L39+1</f>
-        <v>10</v>
-      </c>
-      <c r="N39" s="48">
-        <f>B39</f>
-        <v>9</v>
-      </c>
-      <c r="O39" s="32">
-        <f>N39+1</f>
-        <v>10</v>
-      </c>
-      <c r="P39" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="9">
-        <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="R39" s="6">
-        <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
-      <c r="S39" s="19">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="T39" s="20">
-        <f>100/(1+S39)</f>
-        <v>50</v>
-      </c>
-      <c r="U39" s="21">
-        <f t="shared" si="40"/>
-        <v>50</v>
-      </c>
-      <c r="V39" s="19">
-        <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="W39" s="9">
-        <f t="shared" si="42"/>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="X39" s="22">
-        <f>S39*W39</f>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="23">
-        <f>100*R39/(Q$17+R$17)</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="AA39" s="19"/>
-    </row>
-    <row r="40" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P40" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q40" s="25">
-        <f>SUM(Q37:Q39)</f>
-        <v>13</v>
-      </c>
-      <c r="R40" s="26">
-        <f>SUM(R37:R39)</f>
-        <v>17</v>
-      </c>
-      <c r="S40" s="27">
-        <f>Q40/R40</f>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="T40" s="25">
-        <f>AVERAGE(T37:T39)</f>
-        <v>56.666666666666664</v>
-      </c>
-      <c r="U40" s="25">
-        <f>AVERAGE(U37:U39)</f>
-        <v>56.666666666666664</v>
-      </c>
-      <c r="V40" s="27">
-        <f>(100/T40)-1</f>
-        <v>0.76470588235294135</v>
-      </c>
-      <c r="W40" s="25"/>
-      <c r="X40" s="42">
-        <f>SUM(X37:X39)</f>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="30">
-        <f>SUM(Z37:Z39)</f>
-        <v>56.666666666666671</v>
-      </c>
-      <c r="AA40" s="43">
-        <f>(100/Z40)-1</f>
-        <v>0.76470588235294112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R41" s="47" t="s">
+      <c r="R37" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="S41" s="44">
-        <f>SUM(S37:S39)</f>
-        <v>5</v>
+      <c r="S37" s="44">
+        <f>SUM(S33:S35)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F22:O22"/>
-    <mergeCell ref="F23:O23"/>
-    <mergeCell ref="F34:O34"/>
-    <mergeCell ref="F35:O35"/>
+    <mergeCell ref="F30:O30"/>
+    <mergeCell ref="F31:O31"/>
+    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="F21:O21"/>
     <mergeCell ref="F3:O3"/>
     <mergeCell ref="F12:O12"/>
     <mergeCell ref="F11:O11"/>
   </mergeCells>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThanOrEqual">
       <formula>$C$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:O16">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThanOrEqual">
       <formula>$C$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:O15">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThanOrEqual">
       <formula>$C$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:O14">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThanOrEqual">
       <formula>$C$14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:O26">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
-      <formula>$C$26</formula>
+  <conditionalFormatting sqref="F34:O34">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThanOrEqual">
+      <formula>$C$34</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:O27">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
-      <formula>$C$27</formula>
+  <conditionalFormatting sqref="F35:O35">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThanOrEqual">
+      <formula>$C$35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:O25">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
-      <formula>$C$25</formula>
+  <conditionalFormatting sqref="F33:O33">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
+      <formula>$C$33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:O7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThanOrEqual">
       <formula>$C$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:O6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThanOrEqual">
       <formula>$C$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:O5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
       <formula>$C$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E73DC7B-AFFF-724A-83A6-5E0316F6A6E0}">
+  <dimension ref="B3:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="285" zoomScaleNormal="285" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <f>'4 rounds'!S9</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <f>'4 rounds'!S8</f>
+        <v>0.875</v>
+      </c>
+      <c r="D5" s="6">
+        <f>'4 rounds'!T8</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="E5" s="6">
+        <f>'4 rounds'!R8</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <f>'4 rounds'!S27</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <f>'4 rounds'!S26</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'4 rounds'!T26</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="E6" s="6">
+        <f>'4 rounds'!R26</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <f>'4 rounds'!S18</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <f>'4 rounds'!S17</f>
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="6">
+        <f>'4 rounds'!U17</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E7" s="6">
+        <f>'4 rounds'!R17</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>